--- a/src/output/results5.xlsx
+++ b/src/output/results5.xlsx
@@ -346,2922 +346,2922 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4998.0</v>
+        <v>2928.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1177.0</v>
+        <v>1127.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5116.0</v>
+        <v>3685.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1231.0</v>
+        <v>1116.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4577.0</v>
+        <v>3306.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1393.0</v>
+        <v>1192.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4017.0</v>
+        <v>3061.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1972.0</v>
+        <v>1255.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3804.0</v>
+        <v>2855.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1962.0</v>
+        <v>1333.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3509.0</v>
+        <v>3609.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1882.0</v>
+        <v>1266.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3160.0</v>
+        <v>3194.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1636.0</v>
+        <v>1220.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3102.0</v>
+        <v>2556.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1534.0</v>
+        <v>1185.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2915.0</v>
+        <v>2475.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1516.0</v>
+        <v>1272.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2826.0</v>
+        <v>2504.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1402.0</v>
+        <v>1138.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2817.0</v>
+        <v>2471.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1396.0</v>
+        <v>1114.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2809.0</v>
+        <v>2386.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1306.0</v>
+        <v>1041.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2627.0</v>
+        <v>2797.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1259.0</v>
+        <v>1102.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2750.0</v>
+        <v>2658.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1213.0</v>
+        <v>941.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2700.0</v>
+        <v>2333.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1224.0</v>
+        <v>991.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2626.0</v>
+        <v>2309.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1128.0</v>
+        <v>1046.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2598.0</v>
+        <v>2193.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1097.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2554.0</v>
+        <v>2324.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1165.0</v>
+        <v>998.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2536.0</v>
+        <v>2362.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1112.0</v>
+        <v>934.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2632.0</v>
+        <v>2694.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1153.0</v>
+        <v>909.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2565.0</v>
+        <v>2632.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1124.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2578.0</v>
+        <v>2313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1098.0</v>
+        <v>944.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2491.0</v>
+        <v>2278.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1112.0</v>
+        <v>980.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2573.0</v>
+        <v>2333.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1015.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2572.0</v>
+        <v>2287.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1079.0</v>
+        <v>928.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2586.0</v>
+        <v>2372.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1109.0</v>
+        <v>920.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2663.0</v>
+        <v>2796.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1074.0</v>
+        <v>973.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2515.0</v>
+        <v>2695.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1100.0</v>
+        <v>997.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2584.0</v>
+        <v>2268.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1063.0</v>
+        <v>953.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2594.0</v>
+        <v>2283.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1130.0</v>
+        <v>1022.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2499.0</v>
+        <v>2238.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1045.0</v>
+        <v>975.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3207.0</v>
+        <v>3250.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1074.0</v>
+        <v>986.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3356.0</v>
+        <v>3171.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1100.0</v>
+        <v>953.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3025.0</v>
+        <v>3446.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1139.0</v>
+        <v>1085.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3196.0</v>
+        <v>3297.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1328.0</v>
+        <v>1154.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4357.0</v>
+        <v>4443.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1317.0</v>
+        <v>1305.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4181.0</v>
+        <v>4214.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1361.0</v>
+        <v>1315.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4613.0</v>
+        <v>5060.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1534.0</v>
+        <v>1587.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5171.0</v>
+        <v>5586.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1769.0</v>
+        <v>1747.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5561.0</v>
+        <v>6123.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1880.0</v>
+        <v>1913.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5163.0</v>
+        <v>6344.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2055.0</v>
+        <v>2185.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4879.0</v>
+        <v>6483.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2203.0</v>
+        <v>2461.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7103.0</v>
+        <v>7545.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2433.0</v>
+        <v>2621.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6413.0</v>
+        <v>7027.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2271.0</v>
+        <v>2653.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7053.0</v>
+        <v>7860.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2436.0</v>
+        <v>2878.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7858.0</v>
+        <v>8604.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2842.0</v>
+        <v>3090.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8573.0</v>
+        <v>9021.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2964.0</v>
+        <v>3253.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7488.0</v>
+        <v>9759.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3130.0</v>
+        <v>3574.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7150.0</v>
+        <v>9974.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3498.0</v>
+        <v>3809.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10143.0</v>
+        <v>10730.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3720.0</v>
+        <v>3861.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9118.0</v>
+        <v>9959.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3484.0</v>
+        <v>4101.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9539.0</v>
+        <v>10775.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3669.0</v>
+        <v>4291.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10654.0</v>
+        <v>11733.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4223.0</v>
+        <v>4541.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11215.0</v>
+        <v>12504.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4175.0</v>
+        <v>4596.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9877.0</v>
+        <v>13088.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4314.0</v>
+        <v>4880.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9207.0</v>
+        <v>13532.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4890.0</v>
+        <v>5367.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12895.0</v>
+        <v>14246.0</v>
       </c>
       <c r="B57" t="n">
-        <v>5003.0</v>
+        <v>5369.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11409.0</v>
+        <v>13143.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4602.0</v>
+        <v>5661.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12318.0</v>
+        <v>13994.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4911.0</v>
+        <v>5853.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13121.0</v>
+        <v>15166.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5320.0</v>
+        <v>5989.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14108.0</v>
+        <v>15677.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5280.0</v>
+        <v>6187.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12145.0</v>
+        <v>16662.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5531.0</v>
+        <v>6438.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11197.0</v>
+        <v>17161.0</v>
       </c>
       <c r="B63" t="n">
-        <v>6091.0</v>
+        <v>6918.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15702.0</v>
+        <v>17593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>6006.0</v>
+        <v>7051.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13622.0</v>
+        <v>15842.0</v>
       </c>
       <c r="B65" t="n">
-        <v>5893.0</v>
+        <v>7053.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14717.0</v>
+        <v>17094.0</v>
       </c>
       <c r="B66" t="n">
-        <v>5903.0</v>
+        <v>7363.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15448.0</v>
+        <v>17878.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6394.0</v>
+        <v>7505.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>16094.0</v>
+        <v>18381.0</v>
       </c>
       <c r="B68" t="n">
-        <v>6421.0</v>
+        <v>7500.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14250.0</v>
+        <v>19842.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6634.0</v>
+        <v>7727.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12781.0</v>
+        <v>20355.0</v>
       </c>
       <c r="B70" t="n">
-        <v>7143.0</v>
+        <v>8163.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17575.0</v>
+        <v>19807.0</v>
       </c>
       <c r="B71" t="n">
-        <v>7086.0</v>
+        <v>8286.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15384.0</v>
+        <v>17868.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6607.0</v>
+        <v>8225.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15760.0</v>
+        <v>18813.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6789.0</v>
+        <v>8621.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16849.0</v>
+        <v>19680.0</v>
       </c>
       <c r="B74" t="n">
-        <v>7293.0</v>
+        <v>8354.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17596.0</v>
+        <v>20029.0</v>
       </c>
       <c r="B75" t="n">
-        <v>7217.0</v>
+        <v>8442.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14904.0</v>
+        <v>21546.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7124.0</v>
+        <v>8399.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13668.0</v>
+        <v>21789.0</v>
       </c>
       <c r="B77" t="n">
-        <v>7707.0</v>
+        <v>8976.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18485.0</v>
+        <v>20833.0</v>
       </c>
       <c r="B78" t="n">
-        <v>7882.0</v>
+        <v>8912.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16178.0</v>
+        <v>18860.0</v>
       </c>
       <c r="B79" t="n">
-        <v>7102.0</v>
+        <v>9152.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16489.0</v>
+        <v>19548.0</v>
       </c>
       <c r="B80" t="n">
-        <v>7122.0</v>
+        <v>9153.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17338.0</v>
+        <v>19954.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7671.0</v>
+        <v>8971.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17620.0</v>
+        <v>20351.0</v>
       </c>
       <c r="B82" t="n">
-        <v>7425.0</v>
+        <v>8715.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15124.0</v>
+        <v>21710.0</v>
       </c>
       <c r="B83" t="n">
-        <v>7461.0</v>
+        <v>8844.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13613.0</v>
+        <v>22045.0</v>
       </c>
       <c r="B84" t="n">
-        <v>7848.0</v>
+        <v>9131.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18412.0</v>
+        <v>20570.0</v>
       </c>
       <c r="B85" t="n">
-        <v>7806.0</v>
+        <v>9178.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16111.0</v>
+        <v>18473.0</v>
       </c>
       <c r="B86" t="n">
-        <v>7297.0</v>
+        <v>9195.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16282.0</v>
+        <v>18932.0</v>
       </c>
       <c r="B87" t="n">
-        <v>7383.0</v>
+        <v>9129.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17084.0</v>
+        <v>19868.0</v>
       </c>
       <c r="B88" t="n">
-        <v>7736.0</v>
+        <v>8805.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17159.0</v>
+        <v>19607.0</v>
       </c>
       <c r="B89" t="n">
-        <v>7256.0</v>
+        <v>8370.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>14666.0</v>
+        <v>20676.0</v>
       </c>
       <c r="B90" t="n">
-        <v>7199.0</v>
+        <v>8511.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13350.0</v>
+        <v>20981.0</v>
       </c>
       <c r="B91" t="n">
-        <v>7699.0</v>
+        <v>8754.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>17880.0</v>
+        <v>19993.0</v>
       </c>
       <c r="B92" t="n">
-        <v>7648.0</v>
+        <v>8481.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>15896.0</v>
+        <v>17681.0</v>
       </c>
       <c r="B93" t="n">
-        <v>7149.0</v>
+        <v>8695.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15872.0</v>
+        <v>18345.0</v>
       </c>
       <c r="B94" t="n">
-        <v>7154.0</v>
+        <v>8781.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16576.0</v>
+        <v>18738.0</v>
       </c>
       <c r="B95" t="n">
-        <v>7437.0</v>
+        <v>8464.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>17035.0</v>
+        <v>19254.0</v>
       </c>
       <c r="B96" t="n">
-        <v>7232.0</v>
+        <v>8258.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>11979.0</v>
+        <v>20254.0</v>
       </c>
       <c r="B97" t="n">
-        <v>7158.0</v>
+        <v>8192.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12989.0</v>
+        <v>19435.0</v>
       </c>
       <c r="B98" t="n">
-        <v>7576.0</v>
+        <v>8341.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13546.0</v>
+        <v>13963.0</v>
       </c>
       <c r="B99" t="n">
-        <v>7564.0</v>
+        <v>8318.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11908.0</v>
+        <v>12659.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6698.0</v>
+        <v>8165.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11202.0</v>
+        <v>12257.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6294.0</v>
+        <v>7688.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11054.0</v>
+        <v>11978.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6092.0</v>
+        <v>6548.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10686.0</v>
+        <v>11594.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5279.0</v>
+        <v>5789.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8996.0</v>
+        <v>13889.0</v>
       </c>
       <c r="B104" t="n">
-        <v>4947.0</v>
+        <v>5455.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8123.0</v>
+        <v>12326.0</v>
       </c>
       <c r="B105" t="n">
-        <v>4966.0</v>
+        <v>5378.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11395.0</v>
+        <v>12444.0</v>
       </c>
       <c r="B106" t="n">
-        <v>5021.0</v>
+        <v>5155.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10012.0</v>
+        <v>11221.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4562.0</v>
+        <v>5283.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10350.0</v>
+        <v>11557.0</v>
       </c>
       <c r="B108" t="n">
-        <v>4506.0</v>
+        <v>5156.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10589.0</v>
+        <v>11964.0</v>
       </c>
       <c r="B109" t="n">
-        <v>4458.0</v>
+        <v>5218.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11608.0</v>
+        <v>12529.0</v>
       </c>
       <c r="B110" t="n">
-        <v>4549.0</v>
+        <v>4952.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9534.0</v>
+        <v>13527.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4591.0</v>
+        <v>5179.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9006.0</v>
+        <v>12777.0</v>
       </c>
       <c r="B112" t="n">
-        <v>5063.0</v>
+        <v>5416.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>12883.0</v>
+        <v>13746.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5154.0</v>
+        <v>5278.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>11643.0</v>
+        <v>12525.0</v>
       </c>
       <c r="B114" t="n">
-        <v>4982.0</v>
+        <v>5376.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>12314.0</v>
+        <v>12839.0</v>
       </c>
       <c r="B115" t="n">
-        <v>5012.0</v>
+        <v>5774.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>12881.0</v>
+        <v>13498.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5155.0</v>
+        <v>5578.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>13517.0</v>
+        <v>13900.0</v>
       </c>
       <c r="B117" t="n">
-        <v>5091.0</v>
+        <v>5562.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11658.0</v>
+        <v>14737.0</v>
       </c>
       <c r="B118" t="n">
-        <v>5448.0</v>
+        <v>5791.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10887.0</v>
+        <v>14476.0</v>
       </c>
       <c r="B119" t="n">
-        <v>5952.0</v>
+        <v>5987.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>15688.0</v>
+        <v>15016.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6231.0</v>
+        <v>6033.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>14167.0</v>
+        <v>13613.0</v>
       </c>
       <c r="B121" t="n">
-        <v>6110.0</v>
+        <v>6096.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>14987.0</v>
+        <v>14127.0</v>
       </c>
       <c r="B122" t="n">
-        <v>6052.0</v>
+        <v>6250.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>15992.0</v>
+        <v>14728.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6414.0</v>
+        <v>6187.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>16581.0</v>
+        <v>15136.0</v>
       </c>
       <c r="B124" t="n">
-        <v>6580.0</v>
+        <v>6141.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>14872.0</v>
+        <v>15886.0</v>
       </c>
       <c r="B125" t="n">
-        <v>6871.0</v>
+        <v>6523.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>13411.0</v>
+        <v>15919.0</v>
       </c>
       <c r="B126" t="n">
-        <v>7540.0</v>
+        <v>6427.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>18786.0</v>
+        <v>16580.0</v>
       </c>
       <c r="B127" t="n">
-        <v>7577.0</v>
+        <v>6569.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17310.0</v>
+        <v>15329.0</v>
       </c>
       <c r="B128" t="n">
-        <v>7681.0</v>
+        <v>6767.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>18099.0</v>
+        <v>15468.0</v>
       </c>
       <c r="B129" t="n">
-        <v>7550.0</v>
+        <v>6725.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>19281.0</v>
+        <v>16498.0</v>
       </c>
       <c r="B130" t="n">
-        <v>7511.0</v>
+        <v>6935.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>20777.0</v>
+        <v>16842.0</v>
       </c>
       <c r="B131" t="n">
-        <v>8304.0</v>
+        <v>7081.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>18256.0</v>
+        <v>17841.0</v>
       </c>
       <c r="B132" t="n">
-        <v>8487.0</v>
+        <v>6953.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>16459.0</v>
+        <v>17467.0</v>
       </c>
       <c r="B133" t="n">
-        <v>9174.0</v>
+        <v>7448.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>22635.0</v>
+        <v>18385.0</v>
       </c>
       <c r="B134" t="n">
-        <v>9439.0</v>
+        <v>7431.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>20741.0</v>
+        <v>16890.0</v>
       </c>
       <c r="B135" t="n">
-        <v>9344.0</v>
+        <v>7594.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>21764.0</v>
+        <v>17348.0</v>
       </c>
       <c r="B136" t="n">
-        <v>9261.0</v>
+        <v>7798.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>23155.0</v>
+        <v>17923.0</v>
       </c>
       <c r="B137" t="n">
-        <v>9466.0</v>
+        <v>7633.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>24728.0</v>
+        <v>18616.0</v>
       </c>
       <c r="B138" t="n">
-        <v>9664.0</v>
+        <v>7611.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>21699.0</v>
+        <v>19289.0</v>
       </c>
       <c r="B139" t="n">
-        <v>10619.0</v>
+        <v>8006.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>19557.0</v>
+        <v>19501.0</v>
       </c>
       <c r="B140" t="n">
-        <v>11193.0</v>
+        <v>8201.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>26570.0</v>
+        <v>20480.0</v>
       </c>
       <c r="B141" t="n">
-        <v>11231.0</v>
+        <v>8289.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>23686.0</v>
+        <v>18633.0</v>
       </c>
       <c r="B142" t="n">
-        <v>10971.0</v>
+        <v>8395.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>24700.0</v>
+        <v>18922.0</v>
       </c>
       <c r="B143" t="n">
-        <v>10882.0</v>
+        <v>8565.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>25892.0</v>
+        <v>19842.0</v>
       </c>
       <c r="B144" t="n">
-        <v>10746.0</v>
+        <v>8590.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>27578.0</v>
+        <v>20301.0</v>
       </c>
       <c r="B145" t="n">
-        <v>11206.0</v>
+        <v>8638.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>24017.0</v>
+        <v>21540.0</v>
       </c>
       <c r="B146" t="n">
-        <v>11892.0</v>
+        <v>8834.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>21685.0</v>
+        <v>21067.0</v>
       </c>
       <c r="B147" t="n">
-        <v>12765.0</v>
+        <v>9082.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>28627.0</v>
+        <v>22005.0</v>
       </c>
       <c r="B148" t="n">
-        <v>12438.0</v>
+        <v>9335.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>25531.0</v>
+        <v>20327.0</v>
       </c>
       <c r="B149" t="n">
-        <v>12201.0</v>
+        <v>9369.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>21412.0</v>
+        <v>15577.0</v>
       </c>
       <c r="B150" t="n">
-        <v>11834.0</v>
+        <v>9382.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>21596.0</v>
+        <v>15669.0</v>
       </c>
       <c r="B151" t="n">
-        <v>11262.0</v>
+        <v>9027.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>21486.0</v>
+        <v>15522.0</v>
       </c>
       <c r="B152" t="n">
-        <v>11262.0</v>
+        <v>8846.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>16603.0</v>
+        <v>20548.0</v>
       </c>
       <c r="B153" t="n">
-        <v>10853.0</v>
+        <v>8536.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>16628.0</v>
+        <v>17871.0</v>
       </c>
       <c r="B154" t="n">
-        <v>10799.0</v>
+        <v>8163.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13444.0</v>
+        <v>15412.0</v>
       </c>
       <c r="B155" t="n">
-        <v>9917.0</v>
+        <v>7912.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10733.0</v>
+        <v>12798.0</v>
       </c>
       <c r="B156" t="n">
-        <v>8594.0</v>
+        <v>7509.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14394.0</v>
+        <v>15051.0</v>
       </c>
       <c r="B157" t="n">
-        <v>7260.0</v>
+        <v>7041.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>11970.0</v>
+        <v>13364.0</v>
       </c>
       <c r="B158" t="n">
-        <v>6372.0</v>
+        <v>6670.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10302.0</v>
+        <v>10521.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6066.0</v>
+        <v>6439.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8831.0</v>
+        <v>11818.0</v>
       </c>
       <c r="B160" t="n">
-        <v>5829.0</v>
+        <v>6349.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8796.0</v>
+        <v>11335.0</v>
       </c>
       <c r="B161" t="n">
-        <v>5601.0</v>
+        <v>6055.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11461.0</v>
+        <v>11625.0</v>
       </c>
       <c r="B162" t="n">
-        <v>5656.0</v>
+        <v>6041.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12277.0</v>
+        <v>13903.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5515.0</v>
+        <v>5780.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>11797.0</v>
+        <v>13413.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5123.0</v>
+        <v>5443.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12515.0</v>
+        <v>14081.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4671.0</v>
+        <v>5519.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>13452.0</v>
+        <v>14913.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4842.0</v>
+        <v>5621.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11733.0</v>
+        <v>17414.0</v>
       </c>
       <c r="B167" t="n">
-        <v>5394.0</v>
+        <v>6211.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11463.0</v>
+        <v>16401.0</v>
       </c>
       <c r="B168" t="n">
-        <v>6156.0</v>
+        <v>6609.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16282.0</v>
+        <v>18229.0</v>
       </c>
       <c r="B169" t="n">
-        <v>6112.0</v>
+        <v>7277.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>14867.0</v>
+        <v>16918.0</v>
       </c>
       <c r="B170" t="n">
-        <v>6226.0</v>
+        <v>7513.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>15714.0</v>
+        <v>17683.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6334.0</v>
+        <v>7519.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16774.0</v>
+        <v>19203.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6183.0</v>
+        <v>7848.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>18617.0</v>
+        <v>19844.0</v>
       </c>
       <c r="B173" t="n">
-        <v>6653.0</v>
+        <v>8253.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16714.0</v>
+        <v>22847.0</v>
       </c>
       <c r="B174" t="n">
-        <v>7545.0</v>
+        <v>8932.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>15242.0</v>
+        <v>22812.0</v>
       </c>
       <c r="B175" t="n">
-        <v>8073.0</v>
+        <v>9228.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>21520.0</v>
+        <v>22849.0</v>
       </c>
       <c r="B176" t="n">
-        <v>8302.0</v>
+        <v>9816.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>19909.0</v>
+        <v>21377.0</v>
       </c>
       <c r="B177" t="n">
-        <v>8302.0</v>
+        <v>10144.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>21120.0</v>
+        <v>22841.0</v>
       </c>
       <c r="B178" t="n">
-        <v>8579.0</v>
+        <v>10154.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>22560.0</v>
+        <v>23920.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8587.0</v>
+        <v>10201.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>24533.0</v>
+        <v>25196.0</v>
       </c>
       <c r="B180" t="n">
-        <v>9253.0</v>
+        <v>11064.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>22220.0</v>
+        <v>28316.0</v>
       </c>
       <c r="B181" t="n">
-        <v>10277.0</v>
+        <v>11341.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>19829.0</v>
+        <v>29019.0</v>
       </c>
       <c r="B182" t="n">
-        <v>10980.0</v>
+        <v>11781.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>28003.0</v>
+        <v>27632.0</v>
       </c>
       <c r="B183" t="n">
-        <v>11210.0</v>
+        <v>12265.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>25099.0</v>
+        <v>25917.0</v>
       </c>
       <c r="B184" t="n">
-        <v>11276.0</v>
+        <v>12893.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>26478.0</v>
+        <v>27294.0</v>
       </c>
       <c r="B185" t="n">
-        <v>11171.0</v>
+        <v>12776.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>27552.0</v>
+        <v>27991.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10859.0</v>
+        <v>12634.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>30168.0</v>
+        <v>29225.0</v>
       </c>
       <c r="B187" t="n">
-        <v>11666.0</v>
+        <v>13259.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>26366.0</v>
+        <v>33063.0</v>
       </c>
       <c r="B188" t="n">
-        <v>12868.0</v>
+        <v>13865.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>24043.0</v>
+        <v>34700.0</v>
       </c>
       <c r="B189" t="n">
-        <v>13843.0</v>
+        <v>14203.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>31860.0</v>
+        <v>30583.0</v>
       </c>
       <c r="B190" t="n">
-        <v>13401.0</v>
+        <v>14632.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>28836.0</v>
+        <v>28326.0</v>
       </c>
       <c r="B191" t="n">
-        <v>13170.0</v>
+        <v>15150.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>30009.0</v>
+        <v>29354.0</v>
       </c>
       <c r="B192" t="n">
-        <v>12963.0</v>
+        <v>14657.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>31098.0</v>
+        <v>30347.0</v>
       </c>
       <c r="B193" t="n">
-        <v>12761.0</v>
+        <v>14309.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>33087.0</v>
+        <v>31044.0</v>
       </c>
       <c r="B194" t="n">
-        <v>13697.0</v>
+        <v>14826.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>28834.0</v>
+        <v>35635.0</v>
       </c>
       <c r="B195" t="n">
-        <v>14608.0</v>
+        <v>15496.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>26065.0</v>
+        <v>36817.0</v>
       </c>
       <c r="B196" t="n">
-        <v>15354.0</v>
+        <v>15308.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>34106.0</v>
+        <v>31326.0</v>
       </c>
       <c r="B197" t="n">
-        <v>14928.0</v>
+        <v>15687.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>30069.0</v>
+        <v>29088.0</v>
       </c>
       <c r="B198" t="n">
-        <v>14445.0</v>
+        <v>15852.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>30883.0</v>
+        <v>30380.0</v>
       </c>
       <c r="B199" t="n">
-        <v>13938.0</v>
+        <v>15388.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>31666.0</v>
+        <v>30215.0</v>
       </c>
       <c r="B200" t="n">
-        <v>13544.0</v>
+        <v>15026.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>33557.0</v>
+        <v>31283.0</v>
       </c>
       <c r="B201" t="n">
-        <v>14091.0</v>
+        <v>15318.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>28900.0</v>
+        <v>35251.0</v>
       </c>
       <c r="B202" t="n">
-        <v>15498.0</v>
+        <v>15751.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>26113.0</v>
+        <v>35977.0</v>
       </c>
       <c r="B203" t="n">
-        <v>15794.0</v>
+        <v>15410.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>33266.0</v>
+        <v>30268.0</v>
       </c>
       <c r="B204" t="n">
-        <v>15003.0</v>
+        <v>15862.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>29376.0</v>
+        <v>27689.0</v>
       </c>
       <c r="B205" t="n">
-        <v>14394.0</v>
+        <v>15601.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>29560.0</v>
+        <v>27952.0</v>
       </c>
       <c r="B206" t="n">
-        <v>13817.0</v>
+        <v>14818.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>21473.0</v>
+        <v>31691.0</v>
       </c>
       <c r="B207" t="n">
-        <v>13106.0</v>
+        <v>14390.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>30522.0</v>
+        <v>29293.0</v>
       </c>
       <c r="B208" t="n">
-        <v>13104.0</v>
+        <v>13989.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>22059.0</v>
+        <v>27432.0</v>
       </c>
       <c r="B209" t="n">
-        <v>13184.0</v>
+        <v>14628.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>20081.0</v>
+        <v>27356.0</v>
       </c>
       <c r="B210" t="n">
-        <v>13852.0</v>
+        <v>14176.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>26209.0</v>
+        <v>26016.0</v>
       </c>
       <c r="B211" t="n">
-        <v>12453.0</v>
+        <v>13124.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>22633.0</v>
+        <v>23688.0</v>
       </c>
       <c r="B212" t="n">
-        <v>11354.0</v>
+        <v>12905.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>23204.0</v>
+        <v>24306.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10928.0</v>
+        <v>12724.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>23856.0</v>
+        <v>24750.0</v>
       </c>
       <c r="B214" t="n">
-        <v>10667.0</v>
+        <v>12156.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>24884.0</v>
+        <v>25042.0</v>
       </c>
       <c r="B215" t="n">
-        <v>10931.0</v>
+        <v>12399.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>21358.0</v>
+        <v>28186.0</v>
       </c>
       <c r="B216" t="n">
-        <v>11616.0</v>
+        <v>12502.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>19280.0</v>
+        <v>28852.0</v>
       </c>
       <c r="B217" t="n">
-        <v>11655.0</v>
+        <v>12293.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>25356.0</v>
+        <v>24480.0</v>
       </c>
       <c r="B218" t="n">
-        <v>11181.0</v>
+        <v>12554.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22033.0</v>
+        <v>22722.0</v>
       </c>
       <c r="B219" t="n">
-        <v>10648.0</v>
+        <v>12625.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>15789.0</v>
+        <v>24611.0</v>
       </c>
       <c r="B220" t="n">
-        <v>10415.0</v>
+        <v>12025.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21771.0</v>
+        <v>22954.0</v>
       </c>
       <c r="B221" t="n">
-        <v>9471.0</v>
+        <v>10980.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>20203.0</v>
+        <v>20766.0</v>
       </c>
       <c r="B222" t="n">
-        <v>9249.0</v>
+        <v>11073.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>17241.0</v>
+        <v>22531.0</v>
       </c>
       <c r="B223" t="n">
-        <v>9818.0</v>
+        <v>11414.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>15108.0</v>
+        <v>21998.0</v>
       </c>
       <c r="B224" t="n">
-        <v>9559.0</v>
+        <v>10626.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>20200.0</v>
+        <v>20765.0</v>
       </c>
       <c r="B225" t="n">
-        <v>9022.0</v>
+        <v>10355.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>18325.0</v>
+        <v>19036.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8707.0</v>
+        <v>10371.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>18804.0</v>
+        <v>19728.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8697.0</v>
+        <v>9962.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>18890.0</v>
+        <v>19896.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8437.0</v>
+        <v>9693.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>19700.0</v>
+        <v>20213.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8427.0</v>
+        <v>9850.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>17014.0</v>
+        <v>22508.0</v>
       </c>
       <c r="B230" t="n">
-        <v>8635.0</v>
+        <v>9887.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15737.0</v>
+        <v>23093.0</v>
       </c>
       <c r="B231" t="n">
-        <v>9247.0</v>
+        <v>9949.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>20932.0</v>
+        <v>20177.0</v>
       </c>
       <c r="B232" t="n">
-        <v>9087.0</v>
+        <v>9917.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>18455.0</v>
+        <v>18285.0</v>
       </c>
       <c r="B233" t="n">
-        <v>8782.0</v>
+        <v>10024.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>15128.0</v>
+        <v>14299.0</v>
       </c>
       <c r="B234" t="n">
-        <v>8551.0</v>
+        <v>9605.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>14951.0</v>
+        <v>14006.0</v>
       </c>
       <c r="B235" t="n">
-        <v>7973.0</v>
+        <v>8875.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>14983.0</v>
+        <v>13505.0</v>
       </c>
       <c r="B236" t="n">
-        <v>7931.0</v>
+        <v>8328.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>11842.0</v>
+        <v>18261.0</v>
       </c>
       <c r="B237" t="n">
-        <v>7863.0</v>
+        <v>7886.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>11720.0</v>
+        <v>15600.0</v>
       </c>
       <c r="B238" t="n">
-        <v>7965.0</v>
+        <v>7321.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>12990.0</v>
+        <v>10941.0</v>
       </c>
       <c r="B239" t="n">
-        <v>7138.0</v>
+        <v>6837.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>10974.0</v>
+        <v>9609.0</v>
       </c>
       <c r="B240" t="n">
-        <v>6325.0</v>
+        <v>6544.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>10247.0</v>
+        <v>9352.0</v>
       </c>
       <c r="B241" t="n">
-        <v>5662.0</v>
+        <v>6018.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9647.0</v>
+        <v>8862.0</v>
       </c>
       <c r="B242" t="n">
-        <v>5202.0</v>
+        <v>5476.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9627.0</v>
+        <v>8623.0</v>
       </c>
       <c r="B243" t="n">
-        <v>5121.0</v>
+        <v>5213.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8122.0</v>
+        <v>11087.0</v>
       </c>
       <c r="B244" t="n">
-        <v>5161.0</v>
+        <v>5071.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>7923.0</v>
+        <v>10021.0</v>
       </c>
       <c r="B245" t="n">
-        <v>5165.0</v>
+        <v>4581.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10770.0</v>
+        <v>9096.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4807.0</v>
+        <v>4203.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9674.0</v>
+        <v>8585.0</v>
       </c>
       <c r="B247" t="n">
-        <v>4379.0</v>
+        <v>4222.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9606.0</v>
+        <v>8656.0</v>
       </c>
       <c r="B248" t="n">
-        <v>4097.0</v>
+        <v>4023.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>9598.0</v>
+        <v>9204.0</v>
       </c>
       <c r="B249" t="n">
-        <v>4031.0</v>
+        <v>4056.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>10221.0</v>
+        <v>9565.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4287.0</v>
+        <v>4123.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8518.0</v>
+        <v>10714.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4544.0</v>
+        <v>4325.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8306.0</v>
+        <v>10041.0</v>
       </c>
       <c r="B252" t="n">
-        <v>4832.0</v>
+        <v>4403.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11351.0</v>
+        <v>10443.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4657.0</v>
+        <v>4414.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>10511.0</v>
+        <v>9811.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4615.0</v>
+        <v>4435.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10369.0</v>
+        <v>9895.0</v>
       </c>
       <c r="B255" t="n">
-        <v>4414.0</v>
+        <v>4347.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>10729.0</v>
+        <v>10164.0</v>
       </c>
       <c r="B256" t="n">
-        <v>4265.0</v>
+        <v>4457.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>11162.0</v>
+        <v>10574.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4410.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9574.0</v>
+        <v>11633.0</v>
       </c>
       <c r="B258" t="n">
-        <v>4786.0</v>
+        <v>4687.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8804.0</v>
+        <v>11515.0</v>
       </c>
       <c r="B259" t="n">
-        <v>5209.0</v>
+        <v>4761.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>12283.0</v>
+        <v>11461.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5168.0</v>
+        <v>4901.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>11264.0</v>
+        <v>10481.0</v>
       </c>
       <c r="B261" t="n">
-        <v>4961.0</v>
+        <v>5003.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>11357.0</v>
+        <v>10614.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4862.0</v>
+        <v>4747.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>11589.0</v>
+        <v>10848.0</v>
       </c>
       <c r="B263" t="n">
-        <v>4778.0</v>
+        <v>4737.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>11888.0</v>
+        <v>11181.0</v>
       </c>
       <c r="B264" t="n">
-        <v>4875.0</v>
+        <v>4933.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>10247.0</v>
+        <v>12020.0</v>
       </c>
       <c r="B265" t="n">
-        <v>5191.0</v>
+        <v>4992.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9452.0</v>
+        <v>11966.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5551.0</v>
+        <v>5108.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>13208.0</v>
+        <v>11854.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5517.0</v>
+        <v>5094.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>12074.0</v>
+        <v>11072.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5282.0</v>
+        <v>5133.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>12024.0</v>
+        <v>11239.0</v>
       </c>
       <c r="B269" t="n">
-        <v>5259.0</v>
+        <v>5190.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>12168.0</v>
+        <v>11168.0</v>
       </c>
       <c r="B270" t="n">
-        <v>5161.0</v>
+        <v>5085.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>12533.0</v>
+        <v>11603.0</v>
       </c>
       <c r="B271" t="n">
-        <v>5092.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>10835.0</v>
+        <v>12432.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5465.0</v>
+        <v>5162.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9661.0</v>
+        <v>12379.0</v>
       </c>
       <c r="B273" t="n">
-        <v>5866.0</v>
+        <v>5294.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9340.0</v>
+        <v>11601.0</v>
       </c>
       <c r="B274" t="n">
-        <v>5797.0</v>
+        <v>5357.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>12347.0</v>
+        <v>11516.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5549.0</v>
+        <v>5279.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>11147.0</v>
+        <v>10431.0</v>
       </c>
       <c r="B276" t="n">
-        <v>5261.0</v>
+        <v>5182.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>10728.0</v>
+        <v>10519.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4821.0</v>
+        <v>4997.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>10784.0</v>
+        <v>10867.0</v>
       </c>
       <c r="B278" t="n">
-        <v>4784.0</v>
+        <v>4927.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>9104.0</v>
+        <v>11161.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4837.0</v>
+        <v>4814.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8185.0</v>
+        <v>10854.0</v>
       </c>
       <c r="B280" t="n">
-        <v>4935.0</v>
+        <v>4977.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>11889.0</v>
+        <v>11813.0</v>
       </c>
       <c r="B281" t="n">
-        <v>5178.0</v>
+        <v>4975.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7638.0</v>
+        <v>10246.0</v>
       </c>
       <c r="B282" t="n">
-        <v>5034.0</v>
+        <v>4949.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>11092.0</v>
+        <v>11331.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4815.0</v>
+        <v>5001.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>10195.0</v>
+        <v>10607.0</v>
       </c>
       <c r="B284" t="n">
-        <v>4478.0</v>
+        <v>4782.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>10285.0</v>
+        <v>10735.0</v>
       </c>
       <c r="B285" t="n">
-        <v>4327.0</v>
+        <v>4840.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8691.0</v>
+        <v>11192.0</v>
       </c>
       <c r="B286" t="n">
-        <v>4517.0</v>
+        <v>4890.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7562.0</v>
+        <v>10822.0</v>
       </c>
       <c r="B287" t="n">
-        <v>4657.0</v>
+        <v>4902.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>11123.0</v>
+        <v>11765.0</v>
       </c>
       <c r="B288" t="n">
-        <v>4711.0</v>
+        <v>4963.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>10131.0</v>
+        <v>10900.0</v>
       </c>
       <c r="B289" t="n">
-        <v>4532.0</v>
+        <v>4831.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>10350.0</v>
+        <v>11126.0</v>
       </c>
       <c r="B290" t="n">
-        <v>4529.0</v>
+        <v>4935.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>10639.0</v>
+        <v>11356.0</v>
       </c>
       <c r="B291" t="n">
-        <v>4449.0</v>
+        <v>4929.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>11010.0</v>
+        <v>11451.0</v>
       </c>
       <c r="B292" t="n">
-        <v>4406.0</v>
+        <v>4957.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>9360.0</v>
+        <v>12354.0</v>
       </c>
       <c r="B293" t="n">
-        <v>4650.0</v>
+        <v>5119.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8546.0</v>
+        <v>12416.0</v>
       </c>
       <c r="B294" t="n">
-        <v>4841.0</v>
+        <v>5280.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>11944.0</v>
+        <v>12222.0</v>
       </c>
       <c r="B295" t="n">
-        <v>5092.0</v>
+        <v>5257.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>10579.0</v>
+        <v>11250.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4760.0</v>
+        <v>5287.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>10905.0</v>
+        <v>11528.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4826.0</v>
+        <v>5413.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>11196.0</v>
+        <v>11738.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4832.0</v>
+        <v>5214.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>11363.0</v>
+        <v>12045.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4769.0</v>
+        <v>5280.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9670.0</v>
+        <v>12527.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4979.0</v>
+        <v>5159.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8676.0</v>
+        <v>12848.0</v>
       </c>
       <c r="B301" t="n">
-        <v>5223.0</v>
+        <v>5289.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>11967.0</v>
+        <v>12646.0</v>
       </c>
       <c r="B302" t="n">
-        <v>5275.0</v>
+        <v>5454.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>10991.0</v>
+        <v>11687.0</v>
       </c>
       <c r="B303" t="n">
-        <v>5112.0</v>
+        <v>5473.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>10801.0</v>
+        <v>11683.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4867.0</v>
+        <v>5574.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9336.0</v>
+        <v>9307.0</v>
       </c>
       <c r="B305" t="n">
-        <v>5017.0</v>
+        <v>5447.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9540.0</v>
+        <v>9337.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4880.0</v>
+        <v>5355.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7906.0</v>
+        <v>12382.0</v>
       </c>
       <c r="B307" t="n">
-        <v>4804.0</v>
+        <v>5085.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7719.0</v>
+        <v>11178.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4806.0</v>
+        <v>4878.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8704.0</v>
+        <v>8381.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4600.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7559.0</v>
+        <v>7641.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4094.0</v>
+        <v>4781.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7489.0</v>
+        <v>7455.0</v>
       </c>
       <c r="B311" t="n">
-        <v>3889.0</v>
+        <v>4375.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7268.0</v>
+        <v>7261.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3690.0</v>
+        <v>3757.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7274.0</v>
+        <v>7193.0</v>
       </c>
       <c r="B313" t="n">
-        <v>3381.0</v>
+        <v>3564.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5582.0</v>
+        <v>8325.0</v>
       </c>
       <c r="B314" t="n">
-        <v>3388.0</v>
+        <v>3496.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>6020.0</v>
+        <v>7614.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3555.0</v>
+        <v>3295.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5375.0</v>
+        <v>6758.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3420.0</v>
+        <v>3291.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6362.0</v>
+        <v>6130.0</v>
       </c>
       <c r="B317" t="n">
-        <v>3082.0</v>
+        <v>3336.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5557.0</v>
+        <v>5426.0</v>
       </c>
       <c r="B318" t="n">
-        <v>2866.0</v>
+        <v>3118.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5586.0</v>
+        <v>5651.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2730.0</v>
+        <v>2883.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5505.0</v>
+        <v>5651.0</v>
       </c>
       <c r="B320" t="n">
-        <v>2573.0</v>
+        <v>2607.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4389.0</v>
+        <v>6068.0</v>
       </c>
       <c r="B321" t="n">
-        <v>2551.0</v>
+        <v>2624.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4681.0</v>
+        <v>5799.0</v>
       </c>
       <c r="B322" t="n">
-        <v>2583.0</v>
+        <v>2503.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5723.0</v>
+        <v>5588.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2463.0</v>
+        <v>2470.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5234.0</v>
+        <v>4979.0</v>
       </c>
       <c r="B324" t="n">
-        <v>2400.0</v>
+        <v>2479.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5183.0</v>
+        <v>4941.0</v>
       </c>
       <c r="B325" t="n">
-        <v>2398.0</v>
+        <v>2494.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5377.0</v>
+        <v>4912.0</v>
       </c>
       <c r="B326" t="n">
-        <v>2405.0</v>
+        <v>2318.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5539.0</v>
+        <v>5039.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2373.0</v>
+        <v>2231.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4246.0</v>
+        <v>5987.0</v>
       </c>
       <c r="B328" t="n">
-        <v>2294.0</v>
+        <v>2210.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4574.0</v>
+        <v>5589.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2440.0</v>
+        <v>2308.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5599.0</v>
+        <v>4954.0</v>
       </c>
       <c r="B330" t="n">
-        <v>2401.0</v>
+        <v>2261.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>4994.0</v>
+        <v>4447.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2308.0</v>
+        <v>2286.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5223.0</v>
+        <v>4568.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2312.0</v>
+        <v>2235.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5215.0</v>
+        <v>4679.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2353.0</v>
+        <v>2039.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5343.0</v>
+        <v>4623.0</v>
       </c>
       <c r="B334" t="n">
-        <v>2184.0</v>
+        <v>1967.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4442.0</v>
+        <v>5271.0</v>
       </c>
       <c r="B335" t="n">
-        <v>2144.0</v>
+        <v>1956.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4492.0</v>
+        <v>5002.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2437.0</v>
+        <v>2030.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4255.0</v>
+        <v>3552.0</v>
       </c>
       <c r="B337" t="n">
-        <v>2394.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4020.0</v>
+        <v>3472.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2310.0</v>
+        <v>2030.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3684.0</v>
+        <v>3055.0</v>
       </c>
       <c r="B339" t="n">
-        <v>2110.0</v>
+        <v>1897.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3497.0</v>
+        <v>3040.0</v>
       </c>
       <c r="B340" t="n">
-        <v>1951.0</v>
+        <v>1694.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3339.0</v>
+        <v>2846.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1762.0</v>
+        <v>1480.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3094.0</v>
+        <v>3607.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1606.0</v>
+        <v>1369.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>3010.0</v>
+        <v>3192.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1605.0</v>
+        <v>1284.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2934.0</v>
+        <v>2461.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1429.0</v>
+        <v>1228.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2839.0</v>
+        <v>2436.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1451.0</v>
+        <v>1261.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2759.0</v>
+        <v>2424.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1345.0</v>
+        <v>1219.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2587.0</v>
+        <v>2362.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1377.0</v>
+        <v>1134.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2727.0</v>
+        <v>2309.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1250.0</v>
+        <v>1064.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2528.0</v>
+        <v>2755.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1261.0</v>
+        <v>1041.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2588.0</v>
+        <v>2456.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1127.0</v>
+        <v>997.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2467.0</v>
+        <v>2219.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1157.0</v>
+        <v>916.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2481.0</v>
+        <v>2206.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1144.0</v>
+        <v>972.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2477.0</v>
+        <v>2163.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1072.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2462.0</v>
+        <v>2131.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1068.0</v>
+        <v>984.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2471.0</v>
+        <v>2180.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1088.0</v>
+        <v>896.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2529.0</v>
+        <v>2543.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1061.0</v>
+        <v>858.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2436.0</v>
+        <v>2416.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1088.0</v>
+        <v>939.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2541.0</v>
+        <v>1949.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1053.0</v>
+        <v>832.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2415.0</v>
+        <v>2069.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1061.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2540.0</v>
+        <v>2114.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1039.0</v>
+        <v>915.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2504.0</v>
+        <v>2028.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1038.0</v>
+        <v>758.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2636.0</v>
+        <v>1943.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1086.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2538.0</v>
+        <v>2149.0</v>
       </c>
       <c r="B363" t="n">
-        <v>1087.0</v>
+        <v>812.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2495.0</v>
+        <v>1995.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1053.0</v>
+        <v>874.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2486.0</v>
+        <v>1791.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1074.0</v>
+        <v>858.0</v>
       </c>
     </row>
   </sheetData>
